--- a/data/trans_dic/Q23_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,7 +667,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -686,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,9; 30,14</t>
+          <t>18,44; 30,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,96; 30,65</t>
+          <t>18,73; 31,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 59,72</t>
+          <t>17,56; 31,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 30,9</t>
+          <t>18,8; 31,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,81; 23,81</t>
+          <t>9,09; 23,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 28,58</t>
+          <t>14,52; 28,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 71,43</t>
+          <t>15,12; 30,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 26,28</t>
+          <t>14,43; 26,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 26,18</t>
+          <t>17,42; 26,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 27,87</t>
+          <t>18,17; 27,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 54,54</t>
+          <t>18,71; 28,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 27,26</t>
+          <t>18,45; 27,07</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -846,7 +847,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>28,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,47; 35,35</t>
+          <t>21,21; 34,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 33,33</t>
+          <t>21,39; 34,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,67; 75,73</t>
+          <t>27,63; 42,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 36,18</t>
+          <t>22,89; 37,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,05; 33,24</t>
+          <t>19,67; 33,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,99; 33,8</t>
+          <t>19,39; 33,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,54</t>
+          <t>14,31; 27,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,6; 33,75</t>
+          <t>19,72; 33,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,03; 31,58</t>
+          <t>22,02; 31,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,05; 32,3</t>
+          <t>21,65; 31,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 59,37</t>
+          <t>22,87; 33,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,23</t>
+          <t>23,32; 33,63</t>
         </is>
       </c>
     </row>
@@ -946,7 +947,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>38,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -966,7 +967,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -986,7 +987,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 40,25</t>
+          <t>29,03; 39,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,11; 42,98</t>
+          <t>33,38; 43,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,79; 74,11</t>
+          <t>33,5; 44,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 40,64</t>
+          <t>5,51; 40,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 32,8</t>
+          <t>13,85; 34,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 28,69</t>
+          <t>13,82; 29,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 100,0</t>
+          <t>17,15; 38,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 35,61</t>
+          <t>15,57; 35,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,74; 37,68</t>
+          <t>27,75; 37,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,2; 38,81</t>
+          <t>29,91; 38,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,32; 73,47</t>
+          <t>31,74; 41,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 37,18</t>
+          <t>4,96; 37,63</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,58%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1127,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,29; 41,34</t>
+          <t>34,48; 41,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,54; 44,38</t>
+          <t>37,01; 44,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,94; 61,71</t>
+          <t>33,62; 41,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,06; 40,12</t>
+          <t>31,22; 40,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,99; 32,75</t>
+          <t>22,96; 33,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,94; 33,81</t>
+          <t>24,08; 33,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,92; 75,85</t>
+          <t>20,32; 29,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,67; 31,15</t>
+          <t>22,2; 31,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 37,73</t>
+          <t>32,22; 37,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,78; 39,26</t>
+          <t>33,47; 39,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,19; 61,45</t>
+          <t>29,5; 35,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,17; 35,72</t>
+          <t>28,93; 35,45</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1246,7 +1247,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1266,7 +1267,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,93; 52,24</t>
+          <t>37,9; 52,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,02; 44,86</t>
+          <t>34,13; 44,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,43; 68,96</t>
+          <t>34,11; 44,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,53; 48,11</t>
+          <t>34,04; 47,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,35; 38,76</t>
+          <t>25,7; 39,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,14; 36,17</t>
+          <t>25,06; 36,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,55; 91,0</t>
+          <t>27,8; 39,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,58; 29,38</t>
+          <t>18,98; 29,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,51; 44,14</t>
+          <t>34,41; 44,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,31; 38,81</t>
+          <t>31,22; 39,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43,59; 69,73</t>
+          <t>33,13; 40,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,81; 37,04</t>
+          <t>28,43; 36,89</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1367,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1386,7 +1387,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,28; 60,14</t>
+          <t>38,49; 60,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,35; 57,46</t>
+          <t>33,04; 57,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,62; 69,4</t>
+          <t>28,84; 51,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,43; 61,03</t>
+          <t>12,31; 63,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,16; 35,52</t>
+          <t>22,09; 35,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,77; 41,91</t>
+          <t>28,82; 42,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,62; 64,35</t>
+          <t>18,72; 31,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 25,81</t>
+          <t>11,76; 25,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,19; 40,15</t>
+          <t>28,92; 40,18</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>32,36; 43,74</t>
+          <t>31,95; 43,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,32; 59,79</t>
+          <t>23,21; 33,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 29,06</t>
+          <t>13,74; 28,96</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1526,7 +1527,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1546,7 +1547,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,55; 38,18</t>
+          <t>33,51; 38,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,35; 38,85</t>
+          <t>34,35; 38,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,33; 57,1</t>
+          <t>33,91; 38,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,44; 35,33</t>
+          <t>18,09; 35,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,3; 29,67</t>
+          <t>24,32; 29,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,86; 31,09</t>
+          <t>25,78; 30,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,85; 57,03</t>
+          <t>23,59; 28,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,38; 26,14</t>
+          <t>21,21; 26,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,98; 34,69</t>
+          <t>30,76; 34,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,7; 35,03</t>
+          <t>31,7; 34,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>42,75; 54,76</t>
+          <t>29,93; 33,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,86; 30,63</t>
+          <t>19,62; 30,55</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54187</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61256</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46509</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>49731</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18838</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31436</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29732</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26440</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>73024</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92692</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>76242</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76172</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41283; 68084</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>47434; 78859</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34689; 61406</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38620; 63876</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10632; 27612</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21448; 42793</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19561; 39839</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19177; 34634</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59375; 88749</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>72860; 110977</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>61157; 93831</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>62419; 91582</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52768</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>64594</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>60578</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54331</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>41769</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45498</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33164</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36601</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94537</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>110093</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>93742</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90932</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>40283; 66353</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50787; 81015</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>48573; 74439</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42011; 68653</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31766; 53632</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33851; 58773</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22764; 43463</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27387; 47177</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>77384; 112244</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89176; 128960</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>76557; 111282</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75179; 108446</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>108543</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>161900</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>122637</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>81916</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13979</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22953</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16726</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11228</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>122522</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>184853</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>139363</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>93144</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91463; 125014</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>141953; 185795</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>105599; 140553</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25294; 184287</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8746; 22009</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15796; 33341</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11028; 24480</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7254; 16635</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>104929; 142062</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>161371; 207835</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>120455; 159287</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25074; 190193</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>279670</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>324213</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>241502</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>186233</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78753</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>113133</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>98986</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>75164</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>358423</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>437346</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>340488</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>261398</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>255778; 307676</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>297139; 358415</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>217734; 265590</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>163014; 211079</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>64415; 93683</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>94793; 131281</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>81679; 117059</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>63621; 90544</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>329390; 387988</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>400543; 469125</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>309572; 371088</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>233924; 286692</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>105926</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>133623</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>140472</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>99417</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65474</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>85246</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>94594</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54497</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>171400</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>218868</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>235065</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>153914</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>88489; 122074</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>115567; 151733</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>120938; 159367</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83635; 116276</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52111; 80499</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>70188; 101560</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>78566; 110777</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42764; 66538</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>150117; 192029</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>193159; 242266</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>211116; 258149</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>133918; 173764</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>39670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29905</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29503</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10043</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>58351</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>78158</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50116</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>21773</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>98020</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>108063</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>79619</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>31815</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>31198; 49106</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21754; 37587</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>21665; 38512</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4233; 22007</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>44908; 71867</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>63573; 93096</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38540; 64552</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14232; 31036</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>82258; 114255</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>91534; 124697</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>65238; 95045</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21346; 45001</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>640764</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>775491</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>641201</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>481671</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>277163</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>376424</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>323317</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>225703</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>917927</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1151915</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>964519</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>707375</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>598240; 678906</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>729453; 820584</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>598893; 683016</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>298535; 578752</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>250065; 306368</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>343138; 412507</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>293267; 355366</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>201816; 248737</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>865486; 966430</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1095099; 1206125</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>900779; 1012708</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>510272; 794571</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>